--- a/Plancheck/check_protocol/STEC poumon DCA.xlsx
+++ b/Plancheck/check_protocol/STEC poumon DCA.xlsx
@@ -1505,7 +1505,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37:L41"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2634,7 +2634,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2673,9 +2673,7 @@
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
+      <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12" t="s">
         <v>112</v>
@@ -2688,9 +2686,7 @@
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
+      <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
         <v>112</v>

--- a/Plancheck/check_protocol/STEC poumon DCA.xlsx
+++ b/Plancheck/check_protocol/STEC poumon DCA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -1504,7 +1504,7 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2331,8 +2331,8 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2634,7 +2634,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A5" sqref="A5:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2718,7 +2718,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2820,10 +2820,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A11" sqref="A11:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2972,30 +2972,6 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-    </row>
-    <row r="12" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Plancheck/check_protocol/STEC poumon DCA.xlsx
+++ b/Plancheck/check_protocol/STEC poumon DCA.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1207,11 +1207,11 @@
     <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1504,8 +1504,8 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,7 +2331,7 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
